--- a/medicine/Enfance/Richard_Petit_(romancier)/Richard_Petit_(romancier).xlsx
+++ b/medicine/Enfance/Richard_Petit_(romancier)/Richard_Petit_(romancier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Petit, né le 7 mars 1958, est un romancier québécois, auteur et illustrateur de romans pour la jeunesse.
 Il est l'auteur de plus de 110 ouvrages édités principalement par Boomerang et Andara.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,17 +554,99 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Passepeur (auteur et illustrateur)
-Passepeur est une collection de romans d'épouvante.
+          <t>Passepeur (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passepeur est une collection de romans d'épouvante.
 Journal d'un louseur
 1.Ma veangence
-Romans Passepeur
-Qui a mordu le vampire ?, février 2016 (Co-Auteur, Marilou Addison)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Passepeur (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans Passepeur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Qui a mordu le vampire ?, février 2016 (Co-Auteur, Marilou Addison)
 Qui va dérouler la momie ?, juillet 2016 (Co-Auteur, Marilou Addison)
 Qui va raser le loup-garou ?, décembre 2016 (Co-Auteur, Marilou Addison)
-Qui va effrayer le fantôme ?, septembre 2017 (Co-Auteur, Marilou Addison)
-Passepeur en couleurs
-Les Derniers Terriens, septembre 2007
+Qui va effrayer le fantôme ?, septembre 2017 (Co-Auteur, Marilou Addison)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Passepeur (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Passepeur en couleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Derniers Terriens, septembre 2007
 Le Trésor des tarentueurs, septembre 2008
 Dans les dédales des fantômes, septembre 2008
 Perdu au centre de la terre, septembre 2009
@@ -563,9 +659,47 @@
 Toi, dans la peau d'un zombi, septembre 2012
 Toi, le pire de tous les vampires, septembre 2013
 La Parade des monstres, septembre 2013
-Bienvenue au club mort d'Akapulko, novembre 2014.
-Trio Passepeur
-Trio terreur no 1, 2008
+Bienvenue au club mort d'Akapulko, novembre 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Passepeur (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Trio Passepeur</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Trio terreur no 1, 2008
 Trio terreur no 2, 2008
 Trio terreur no 3, 2008
 Trio terreur no 4, 2008
@@ -573,9 +707,47 @@
 Trio terreur no 6, 2009
 Trio terreur no 7, 2010
 Trio terreur no 8, 2010
-Trio terreur no 9, 2010
-Votre Passepeur pour un horrible cauchemar
-Perdu dans le manoir raidemort, octobre 1997
+Trio terreur no 9, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Passepeur (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Votre Passepeur pour un horrible cauchemar</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Perdu dans le manoir raidemort, octobre 1997
 Le Prof cannibale, octobre 1997
 La Pleine Lune des mutants-garous, octobre 1997
 Le Cirque du docteur vampire, octobre 1997
@@ -601,23 +773,133 @@
 Les Châteaux de Malvenue, septembre 2005
 Les Cadeaux du père Cruel, septembre 2005
 Johnny Catacombe, octobre 2006
-Le Temple Kôchemort, octobre 2006
-Mini Passepeur
-Poche-de-thé le fantôme, février 2012
+Le Temple Kôchemort, octobre 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Passepeur (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Mini Passepeur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Poche-de-thé le fantôme, février 2012
 Sac-en-papier et ses monstres, février 2012
 La Pyramide de Berlingot la momie, février 2012
 La Colère de Gros-plein-de-soupe, mars 2013
 Les Mauvais Jeux de Mimi Bouh, mars 2013
 Le Barbecue de Ti-guy Mauve, septembre 2014
 Le Toutou perdu de Mimi Bouh, septembre 2014
-Minou-de-nombril le zombi, mars 2015
-Passepeur Hors Série
-Zombis game, octobre 2015
+Minou-de-nombril le zombi, mars 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Passepeur (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Passepeur Hors Série</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Zombis game, octobre 2015
 Caché dans les murs, octobre 2014
 La Bataille des jeux video, band dessinee, septembre 2011
-Entre les griffes des mutans band dessinee, octobre 2012
-Zoombira (auteur et illustrateur)
-Zoombira est une collection de romans de science fiction aventures, qui compte dix tomes.
+Entre les griffes des mutans band dessinee, octobre 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Zoombira (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Zoombira est une collection de romans de science fiction aventures, qui compte dix tomes.
 Le Labyrinthe des mondes, Boomerang éditeur jeunesse, Terrebonne, 2006, 256 p.,  (ISBN 978-2-89595-178-0).
 La Pyramide des Maures, Boomerang éditeur jeunesse, Terrebonne, 2006, 256 p.,  (ISBN 978-2-89595-176-6).
 Le Katana de Jade, Boomerang éditeur jeunesse, Terrebonne, 2006, 256 p.,  (ISBN 978-2-89595-177-3).
@@ -627,9 +909,43 @@
 Les Yeux de la méduse, Boomerang éditeur jeunesse, Terrebonne, 2008, 256 p.,  (ISBN 978-2-89595-335-7).
 Dans les pièges de Shiva, Boomerang éditeur jeunesse, Terrebonne, 2008, 256 p.,  (ISBN 978-2-89595-336-4).
 La Victoire de Drakmor, Boomerang éditeur jeunesse, Terrebonne, 2008, 256 p.,  (ISBN 978-2-89595-337-1).
-Odyssée contre la mort, Boomerang éditeur jeunesse, Terrebonne, 2009, 256 p.,  (ISBN 978-2-89595-337-1).
-Limonade (auteur et illustrateur)
-Limonade est une série de romans pour jeunes filles, écrits de deux points de vue et partiellement imprimés tête-bêche.
+Odyssée contre la mort, Boomerang éditeur jeunesse, Terrebonne, 2009, 256 p.,  (ISBN 978-2-89595-337-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Limonade (auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Limonade est une série de romans pour jeunes filles, écrits de deux points de vue et partiellement imprimés tête-bêche.
 De moche à cool, juin 2005
 Corrida au trésor, juin 2005
 Maskarade, septembre 2005
@@ -646,33 +962,246 @@
 Belle des étoiles, septembre 2009
 Disco Gigi, septembre 2010
 La Gardienne des clés, septembre 2011
-Magikillage
-Zone Frousse (auteur)
-no 12, Il était une… dernière fois !, avril 2011
+Magikillage</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Zone Frousse (auteur)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>no 12, Il était une… dernière fois !, avril 2011
 no 8, Ton journal intime Zone frousse, mars 2010
-no 4, La plus jolie histoire, septembre 2009
-Ping Pong (co-auteur et illustrateur)
-Ping-pong est une collection de mini romans d'environ 5000 mots, pour les enfants.
+no 4, La plus jolie histoire, septembre 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ping Pong (co-auteur et illustrateur)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ping-pong est une collection de mini romans d'environ 5000 mots, pour les enfants.
 no 3, Guerre de mots au party de Gunzo, janvier 2011
 no 2,  Safari Shopping contre les filles, janvier 2011
-no 1, Coincé dans un manège brisé, janvier 2011
-Ping Pong (co-auteur)
-no 9, Joël Noyeux, octobre 2013
+no 1, Coincé dans un manège brisé, janvier 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ping Pong (co-auteur)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>no 9, Joël Noyeux, octobre 2013
 no 8, Cœur Cassé, octobre 2013
 no 7, Glou ! Glou !, octobre 2013
 no 6, Viva EL Vacances, octobre 2011
 no 5, Stars en poche, octobre 2011
-no 4, Texto terreur'', octobre 2011
-Mon Big à Moi
-Mon Big à moi est une collection de grands livres écrits en grosses lettres pour les enfants.
-Auteur et illustrateur
-Le monde totalement à l'envers de Fanny (no), septembre 2017
+no 4, Texto terreur'', octobre 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mon Big à Moi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon Big à moi est une collection de grands livres écrits en grosses lettres pour les enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mon Big à Moi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le monde totalement à l'envers de Fanny (no), septembre 2017
 Le monde totalement à l'envers de Fanny (no), octobre 2016
 Ninja Kid no 1, février 2016
 Le monde totalement à l'envers de Fanny (no), août 2015
-Le monde totalement à l'envers de Fanny (no), février 2015
-Illustrateur
-Les secrets sucrés de Lolly Pop (no), mars 2017, (auteur, Geneviève Guilbault)
+Le monde totalement à l'envers de Fanny (no), février 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mon Big à Moi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Les secrets sucrés de Lolly Pop (no), mars 2017, (auteur, Geneviève Guilbault)
 Les aventuriers des jeux vidéo (no), octobre 2016, (auteur, Geneviève Guilbault)
 Scarlett 007, août 2016, (auteur, Geneviève Guilbault)
 Les Zozos du sport, août 2016, (auteur, Marilou Addison)
@@ -681,21 +1210,208 @@
 Les secrets sucrés de Lolly Pop (no), octobre 2015, (auteur, Geneviève Guilbault)
 Mimi Moustache, octobre 2015, (auteur, Émilie Rivard)
 Lolita Star (no), juin 2015, (auteur, Marilou Addison)
-Les secrets sucrés de Lolly Pop (no), mai 2015 (auteur, Geneviève Guilbault)
-Illustrateur de couverture
-Lili Pompon, septembre 2017, (auteur, Valérie Fontaine)
+Les secrets sucrés de Lolly Pop (no), mai 2015 (auteur, Geneviève Guilbault)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mon Big à Moi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Illustrateur de couverture</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lili Pompon, septembre 2017, (auteur, Valérie Fontaine)
 Lolita Star (no), juillet 2017, (auteur, Marilou Addison)
 Les aventuriers des jeux vidéo (no), juin 2017, (auteur, Geneviève Guilbault)
 Gigi de la lampe, mai 2017, (auteur, Geneviève Guilbault)
-Fidgi et ses drôles d'amimaux, avril 2017, (auteur Marilou Addison)
-Mon Mini Big à moi
-Mon Mini Big à moi est une collection de grands livres écrits en grosses lettres pour les premiers lecteurs.
-Auteur et illustrateur
-King Crotte, août 2017
-Auteur et illustrateur de couverture
-Sauve qui pue !, mai 2017, (Co-auteur, Hélène Bernier)
-Illustrateur de couverture
-Bacon La Tranche détective grillé, octobre 2017, (auteur, Dominique De Loppinot)
+Fidgi et ses drôles d'amimaux, avril 2017, (auteur Marilou Addison)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mon Mini Big à moi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon Mini Big à moi est une collection de grands livres écrits en grosses lettres pour les premiers lecteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mon Mini Big à moi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>King Crotte, août 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mon Mini Big à moi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur de couverture</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sauve qui pue !, mai 2017, (Co-auteur, Hélène Bernier)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mon Mini Big à moi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Illustrateur de couverture</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bacon La Tranche détective grillé, octobre 2017, (auteur, Dominique De Loppinot)
 Bébé Tarzou, octobre 2017, (auteur, Mika)
 Torchon et Guenille, septembre 2017, (auteur, Émilie Rivard)
 Coco Catastrophe, juin 2017, (auteur, Geneviève Guilbault
@@ -703,9 +1419,43 @@
 Bouboule Gomme, mars 2017, (auteur, Marilou Addison)
 Pif perd la boule, janvier 2017, (auteur, Valérie Fontaine)
 Suuuper Barbotte, novembre 2016, (auteur, Geneviève Guilbault)
-Chat volant non identifié, novembre 2016, (auteur, Marilou Addison)
-Roman Adulte (auteur et illustrateur de couverture)
-Dev duel au Far Est, avril 2013</t>
+Chat volant non identifié, novembre 2016, (auteur, Marilou Addison)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_Petit_(romancier)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Roman Adulte (auteur et illustrateur de couverture)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Dev duel au Far Est, avril 2013</t>
         </is>
       </c>
     </row>
